--- a/数据整理/stocks/A股/上证主板/603477-巨星农牧.xlsx
+++ b/数据整理/stocks/A股/上证主板/603477-巨星农牧.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -809,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,17 +821,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -840,13 +861,2151 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4542</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0575</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4867</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603477-巨星农牧.xlsx
+++ b/数据整理/stocks/A股/上证主板/603477-巨星农牧.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2952,7 +2953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2963,17 +2964,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2983,14 +3004,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.73</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5991</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2999,13 +3042,1297 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5734</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5734</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603477-巨星农牧.xlsx
+++ b/数据整理/stocks/A股/上证主板/603477-巨星农牧.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012719</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7129</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.01</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004050</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏新锦升灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0836</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.73</v>
       </c>
     </row>
     <row r="4">
@@ -580,224 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013626</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏周期驱动混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>77.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002662</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深大消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013627</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏周期驱动混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002663</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深大消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004051</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏新锦升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>68.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
+      <c r="D4" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -806,6 +532,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5991</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5734</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5734</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2947,13 +3983,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3004,36 +4040,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>012719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.84</t>
+          <t>23.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>77.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5991</t>
+          <t>0.7129</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3042,36 +4078,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>004050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>华夏新锦升灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>68.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5732</t>
+          <t>0.0836</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3080,36 +4116,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>013626</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>华夏周期驱动混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.32</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>88.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2141</t>
+          <t>0.0554</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3118,36 +4154,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013532</t>
+          <t>012720</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发安宏回报灵活配置混合E</t>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.32</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.46</t>
+          <t>77.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7438</t>
+          <t>0.0356</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3156,36 +4192,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001761</t>
+          <t>002662</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发安宏回报灵活配置混合A</t>
+          <t>前海开源沪港深大消费主题混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.32</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.46</t>
+          <t>91.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7438</t>
+          <t>0.0253</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3194,36 +4230,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>013627</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>华夏周期驱动混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>88.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7016</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3232,36 +4268,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>002663</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>前海开源沪港深大消费主题混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>91.99</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5734</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3270,1070 +4306,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>015210</t>
+          <t>004051</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业混合（LOF）C</t>
+          <t>华夏新锦升灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>68.97</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5734</t>
-        </is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014915</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通匠心优选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4349</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009062</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.95</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3415</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2495</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2313</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>015468</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1979</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009063</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.95</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1590</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004686</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏研究精选股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1336</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011175</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>平安恒鑫混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>27.32</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1295</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010712</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中欧瑾利混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>24.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0611</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>81.80</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0544</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010713</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中欧瑾利混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>24.10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>014916</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>财通匠心优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002844</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金鹰多元策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000845</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国投瑞银信息消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>350009</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>天治研究驱动混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001762</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发安宏回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>81.46</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>014064</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>银华农业产业股票C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009671</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>平安恒泽混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>25.18</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011176</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>平安恒鑫混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>27.32</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006522</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.67</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009672</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>平安恒泽混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>25.18</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>013489</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>广发东财大数据精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>002043</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>天治研究驱动混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002802</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>广发东财大数据精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006523</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.67</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603477-巨星农牧.xlsx
+++ b/数据整理/stocks/A股/上证主板/603477-巨星农牧.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>11.01</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>13.73</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -532,6 +549,1428 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>128.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2434</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2856</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6696</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4345</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3823</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1841,7 +3280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3983,7 +5422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603477-巨星农牧.xlsx
+++ b/数据整理/stocks/A股/上证主板/603477-巨星农牧.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>11.01</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>13.73</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -549,6 +566,1650 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6609</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天治核心成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>017679</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1970,7 +3631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3280,7 +4941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5422,7 +7083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
